--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_12_41.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_12_41.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9447.31073851224</v>
+        <v>1880014.836963936</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9447.31073851224</v>
+        <v>1880014.836963936</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>20534.6308260273</v>
+        <v>1242528.665948983</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>20534.6308260273</v>
+        <v>1242528.665948983</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1112817994.71517</v>
+        <v>45347878.76159748</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10653.40311170585</v>
+        <v>1103397.809540922</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20196.65237863689</v>
+        <v>2016446.163782053</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>29739.90164556791</v>
+        <v>2929494.518023185</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>40295.5599322249</v>
+        <v>3787685.67438799</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>50851.21821888186</v>
+        <v>4645876.830752795</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>60501.68951327316</v>
+        <v>5558925.184993924</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>70340.47919150283</v>
+        <v>6482941.936810809</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>80124.15129397497</v>
+        <v>7395990.291051937</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>90501.24956752502</v>
+        <v>8231890.510670776</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>100692.1056967839</v>
+        <v>9104053.721151099</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>110413.5872357703</v>
+        <v>10010289.62645463</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>120103.7087747595</v>
+        <v>10910284.89175808</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>129793.8303137472</v>
+        <v>11810280.15706163</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>140141.9945780516</v>
+        <v>12675951.80596579</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>150577.7446716733</v>
+        <v>13512030.95882186</v>
       </c>
     </row>
   </sheetData>
@@ -27037,28 +27037,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>217</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
         <v>133</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>84</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27147,16 +27147,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>116</v>
